--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$112</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="131">
   <si>
     <t>Counselor</t>
   </si>
@@ -417,9 +420,6 @@
   </si>
   <si>
     <t>Yamini Patle</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -484,40 +484,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -585,7 +551,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -898,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,7 +3481,7 @@
         <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
         <v>1</v>
@@ -5513,38 +5479,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>131</v>
-      </c>
-      <c r="H113" s="1">
-        <v>1338</v>
-      </c>
-      <c r="I113" s="1">
-        <v>7645</v>
-      </c>
-      <c r="J113" s="1">
-        <v>14274</v>
-      </c>
-      <c r="K113" s="3">
-        <v>11.52622685185186</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:M112"/>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113 A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E112 G2:G112">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -98,328 +98,328 @@
     <t>Priyanka Kaul</t>
   </si>
   <si>
+    <t>Akshada Chinchawade</t>
+  </si>
+  <si>
+    <t>Priti Thakre</t>
+  </si>
+  <si>
+    <t>Akshay Dajjuka</t>
+  </si>
+  <si>
+    <t>Vaibhav Kumar</t>
+  </si>
+  <si>
+    <t>Dinesh Marke</t>
+  </si>
+  <si>
+    <t>Amit Raj</t>
+  </si>
+  <si>
+    <t>Sweta Rai</t>
+  </si>
+  <si>
+    <t>Nivedita Dawate</t>
+  </si>
+  <si>
+    <t>Amol Gosawi</t>
+  </si>
+  <si>
+    <t>Amol Kadam</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Amruta Bhujbal</t>
+  </si>
+  <si>
+    <t>Kader SK Golam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>Aniket Dalvi</t>
+  </si>
+  <si>
+    <t>Bhagyashri Raut</t>
+  </si>
+  <si>
+    <t>Ankita Dhenge</t>
+  </si>
+  <si>
+    <t>Anushri Bhise</t>
+  </si>
+  <si>
+    <t>Puja Kokney</t>
+  </si>
+  <si>
+    <t>Dnyaneshwar Nimje</t>
+  </si>
+  <si>
+    <t>Arati Thorat</t>
+  </si>
+  <si>
+    <t>Seema Patil</t>
+  </si>
+  <si>
+    <t>Ashwini Fegade</t>
+  </si>
+  <si>
+    <t>Kiranjeet Kumar</t>
+  </si>
+  <si>
+    <t>Ashwini Jagtap</t>
+  </si>
+  <si>
+    <t>Charushila Wagh</t>
+  </si>
+  <si>
+    <t>Atul Sonawane</t>
+  </si>
+  <si>
+    <t>Ayush Thakkar</t>
+  </si>
+  <si>
+    <t>Vikramaditya Singh</t>
+  </si>
+  <si>
+    <t>Baburao Pawar</t>
+  </si>
+  <si>
+    <t>Puja Zagade </t>
+  </si>
+  <si>
+    <t>Bhavana chourasia</t>
+  </si>
+  <si>
+    <t>Chaitra Shetty</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Damini Korde</t>
+  </si>
+  <si>
+    <t>Pooja Patwadkar</t>
+  </si>
+  <si>
+    <t>Deepa Pal</t>
+  </si>
+  <si>
+    <t>Shubham Paiyawal</t>
+  </si>
+  <si>
+    <t>Dhananjay salve</t>
+  </si>
+  <si>
+    <t>Dimple Rane</t>
+  </si>
+  <si>
+    <t>Saksham Jaiswal</t>
+  </si>
+  <si>
+    <t>Ganesh Patil</t>
+  </si>
+  <si>
+    <t>Gauri Lad</t>
+  </si>
+  <si>
+    <t>Geetanajli Kubal</t>
+  </si>
+  <si>
+    <t>Govinda Patil</t>
+  </si>
+  <si>
+    <t>Harsha Kashidkar</t>
+  </si>
+  <si>
+    <t>Indira Dhami</t>
+  </si>
+  <si>
+    <t>Ishwar Mali</t>
+  </si>
+  <si>
+    <t>Jai Bohra</t>
+  </si>
+  <si>
+    <t>Jayvardhan Awasarmol</t>
+  </si>
+  <si>
+    <t>Nikita Thorat</t>
+  </si>
+  <si>
+    <t>Kajal Mandlik</t>
+  </si>
+  <si>
+    <t>Kimi Minz</t>
+  </si>
+  <si>
+    <t>Komal Sadafale</t>
+  </si>
+  <si>
+    <t>Krishna Holkar</t>
+  </si>
+  <si>
+    <t>Sharukh Khan</t>
+  </si>
+  <si>
+    <t>Manoj Kolawale</t>
+  </si>
+  <si>
+    <t>Mayuri Rawool</t>
+  </si>
+  <si>
+    <t>Minaz Bhaldar</t>
+  </si>
+  <si>
+    <t>Neha Kubde</t>
+  </si>
+  <si>
+    <t>Neha Prajapati</t>
+  </si>
+  <si>
+    <t>Nikita Manthalkar</t>
+  </si>
+  <si>
+    <t>Nitin Gholap</t>
+  </si>
+  <si>
+    <t>Palak Singh</t>
+  </si>
+  <si>
+    <t>Pallavi Wankhade</t>
+  </si>
+  <si>
+    <t>Pankaj Jamdhade</t>
+  </si>
+  <si>
+    <t>Paresh Gore</t>
+  </si>
+  <si>
+    <t>Prajwali Hadole</t>
+  </si>
+  <si>
+    <t>Pranjali Kulkarni</t>
+  </si>
+  <si>
+    <t>Pratik Borade</t>
+  </si>
+  <si>
+    <t>Pravin Patare</t>
+  </si>
+  <si>
+    <t>Priti Sharma</t>
+  </si>
+  <si>
+    <t>Priya Mishra</t>
+  </si>
+  <si>
+    <t>Priyanka Chalmal</t>
+  </si>
+  <si>
+    <t>Priyanka Chavan</t>
+  </si>
+  <si>
+    <t>Priyanka Kale</t>
+  </si>
+  <si>
+    <t>Snehal Patole</t>
+  </si>
+  <si>
+    <t>Priyanka Malage</t>
+  </si>
+  <si>
+    <t>Rachit Desai</t>
+  </si>
+  <si>
+    <t>Radhika Baraliya</t>
+  </si>
+  <si>
+    <t>Rahul Dhotre</t>
+  </si>
+  <si>
+    <t>Rajan Jaysawal</t>
+  </si>
+  <si>
+    <t>Raman Tripathi</t>
+  </si>
+  <si>
+    <t>Ratnamala Ingle</t>
+  </si>
+  <si>
+    <t>Rohit Arora</t>
+  </si>
+  <si>
+    <t>Sagar Dolare</t>
+  </si>
+  <si>
+    <t>Sagar Gudaghe</t>
+  </si>
+  <si>
+    <t>Sandip Singh</t>
+  </si>
+  <si>
+    <t>Sanjana Rajput</t>
+  </si>
+  <si>
+    <t>Sanket Navgire</t>
+  </si>
+  <si>
+    <t>Santosh Kumar</t>
+  </si>
+  <si>
+    <t>Seajjal Gaikwad</t>
+  </si>
+  <si>
+    <t>Shilpa Pawar</t>
+  </si>
+  <si>
+    <t>Shraddha Narlawar</t>
+  </si>
+  <si>
+    <t>Shrinith Pillay</t>
+  </si>
+  <si>
+    <t>Shroti Bhagat</t>
+  </si>
+  <si>
+    <t>Shubham Gunale</t>
+  </si>
+  <si>
+    <t>Shubham Kulkarni</t>
+  </si>
+  <si>
+    <t>Sonal Nandanwar</t>
+  </si>
+  <si>
+    <t>Sonali Kadam</t>
+  </si>
+  <si>
+    <t>Sumit Gunale</t>
+  </si>
+  <si>
+    <t>Swarnil Ghugare</t>
+  </si>
+  <si>
+    <t>Swati Sengupta</t>
+  </si>
+  <si>
+    <t>Tejas Upalkar</t>
+  </si>
+  <si>
+    <t>Uday Tajane</t>
+  </si>
+  <si>
+    <t>Vidula Ganbote</t>
+  </si>
+  <si>
+    <t>Yamini Patle</t>
+  </si>
+  <si>
     <t>PPN</t>
-  </si>
-  <si>
-    <t>Akshada Chinchawade</t>
-  </si>
-  <si>
-    <t>Priti Thakre</t>
-  </si>
-  <si>
-    <t>Akshay Dajjuka</t>
-  </si>
-  <si>
-    <t>Vaibhav Kumar</t>
-  </si>
-  <si>
-    <t>Dinesh Marke</t>
-  </si>
-  <si>
-    <t>Amit Raj</t>
-  </si>
-  <si>
-    <t>Sweta Rai</t>
-  </si>
-  <si>
-    <t>Nivedita Dawate</t>
-  </si>
-  <si>
-    <t>Amol Gosawi</t>
-  </si>
-  <si>
-    <t>Amol Kadam</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Amruta Bhujbal</t>
-  </si>
-  <si>
-    <t>Kader SK Golam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A </t>
-  </si>
-  <si>
-    <t>Aniket Dalvi</t>
-  </si>
-  <si>
-    <t>Bhagyashri Raut</t>
-  </si>
-  <si>
-    <t>Ankita Dhenge</t>
-  </si>
-  <si>
-    <t>Anushri Bhise</t>
-  </si>
-  <si>
-    <t>Puja Kokney</t>
-  </si>
-  <si>
-    <t>Dnyaneshwar Nimje</t>
-  </si>
-  <si>
-    <t>Arati Thorat</t>
-  </si>
-  <si>
-    <t>Seema Patil</t>
-  </si>
-  <si>
-    <t>Ashwini Fegade</t>
-  </si>
-  <si>
-    <t>Kiranjeet Kumar</t>
-  </si>
-  <si>
-    <t>Ashwini Jagtap</t>
-  </si>
-  <si>
-    <t>Charushila Wagh</t>
-  </si>
-  <si>
-    <t>Atul Sonawane</t>
-  </si>
-  <si>
-    <t>Ayush Thakkar</t>
-  </si>
-  <si>
-    <t>Vikramaditya Singh</t>
-  </si>
-  <si>
-    <t>Baburao Pawar</t>
-  </si>
-  <si>
-    <t>Puja Zagade </t>
-  </si>
-  <si>
-    <t>Bhavana chourasia</t>
-  </si>
-  <si>
-    <t>Chaitra Shetty</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Damini Korde</t>
-  </si>
-  <si>
-    <t>Pooja Patwadkar</t>
-  </si>
-  <si>
-    <t>Deepa Pal</t>
-  </si>
-  <si>
-    <t>Shubham Paiyawal</t>
-  </si>
-  <si>
-    <t>Dhananjay salve</t>
-  </si>
-  <si>
-    <t>Dimple Rane</t>
-  </si>
-  <si>
-    <t>Saksham Jaiswal</t>
-  </si>
-  <si>
-    <t>Ganesh Patil</t>
-  </si>
-  <si>
-    <t>Gauri Lad</t>
-  </si>
-  <si>
-    <t>Geetanajli Kubal</t>
-  </si>
-  <si>
-    <t>Govinda Patil</t>
-  </si>
-  <si>
-    <t>Harsha Kashidkar</t>
-  </si>
-  <si>
-    <t>Indira Dhami</t>
-  </si>
-  <si>
-    <t>Ishwar Mali</t>
-  </si>
-  <si>
-    <t>Jai Bohra</t>
-  </si>
-  <si>
-    <t>Jayvardhan Awasarmol</t>
-  </si>
-  <si>
-    <t>Nikita Thorat</t>
-  </si>
-  <si>
-    <t>Kajal Mandlik</t>
-  </si>
-  <si>
-    <t>Kimi Minz</t>
-  </si>
-  <si>
-    <t>Komal Sadafale</t>
-  </si>
-  <si>
-    <t>Krishna Holkar</t>
-  </si>
-  <si>
-    <t>Sharukh Khan</t>
-  </si>
-  <si>
-    <t>Manoj Kolawale</t>
-  </si>
-  <si>
-    <t>Mayuri Rawool</t>
-  </si>
-  <si>
-    <t>Minaz Bhaldar</t>
-  </si>
-  <si>
-    <t>Neha Kubde</t>
-  </si>
-  <si>
-    <t>Neha Prajapati</t>
-  </si>
-  <si>
-    <t>Nikita Manthalkar</t>
-  </si>
-  <si>
-    <t>Nitin Gholap</t>
-  </si>
-  <si>
-    <t>Palak Singh</t>
-  </si>
-  <si>
-    <t>Pallavi Wankhade</t>
-  </si>
-  <si>
-    <t>Pankaj Jamdhade</t>
-  </si>
-  <si>
-    <t>Paresh Gore</t>
-  </si>
-  <si>
-    <t>Prajwali Hadole</t>
-  </si>
-  <si>
-    <t>Pranjali Kulkarni</t>
-  </si>
-  <si>
-    <t>Pratik Borade</t>
-  </si>
-  <si>
-    <t>Pravin Patare</t>
-  </si>
-  <si>
-    <t>Priti Sharma</t>
-  </si>
-  <si>
-    <t>Priya Mishra</t>
-  </si>
-  <si>
-    <t>Priyanka Chalmal</t>
-  </si>
-  <si>
-    <t>Priyanka Chavan</t>
-  </si>
-  <si>
-    <t>Priyanka Kale</t>
-  </si>
-  <si>
-    <t>Snehal Patole</t>
-  </si>
-  <si>
-    <t>Priyanka Malage</t>
-  </si>
-  <si>
-    <t>Rachit Desai</t>
-  </si>
-  <si>
-    <t>Radhika Baraliya</t>
-  </si>
-  <si>
-    <t>Rahul Dhotre</t>
-  </si>
-  <si>
-    <t>Rajan Jaysawal</t>
-  </si>
-  <si>
-    <t>Raman Tripathi</t>
-  </si>
-  <si>
-    <t>Ratnamala Ingle</t>
-  </si>
-  <si>
-    <t>Rohit Arora</t>
-  </si>
-  <si>
-    <t>Sagar Dolare</t>
-  </si>
-  <si>
-    <t>Sagar Gudaghe</t>
-  </si>
-  <si>
-    <t>Sandip Singh</t>
-  </si>
-  <si>
-    <t>Sanjana Rajput</t>
-  </si>
-  <si>
-    <t>Sanket Navgire</t>
-  </si>
-  <si>
-    <t>Santosh Kumar</t>
-  </si>
-  <si>
-    <t>Seajjal Gaikwad</t>
-  </si>
-  <si>
-    <t>Shilpa Pawar</t>
-  </si>
-  <si>
-    <t>Shraddha Narlawar</t>
-  </si>
-  <si>
-    <t>Shrinith Pillay</t>
-  </si>
-  <si>
-    <t>Shroti Bhagat</t>
-  </si>
-  <si>
-    <t>Shubham Gunale</t>
-  </si>
-  <si>
-    <t>Shubham Kulkarni</t>
-  </si>
-  <si>
-    <t>Sonal Nandanwar</t>
-  </si>
-  <si>
-    <t>Sonali Kadam</t>
-  </si>
-  <si>
-    <t>Sumit Gunale</t>
-  </si>
-  <si>
-    <t>Swarnil Ghugare</t>
-  </si>
-  <si>
-    <t>Swati Sengupta</t>
-  </si>
-  <si>
-    <t>Tejas Upalkar</t>
-  </si>
-  <si>
-    <t>Uday Tajane</t>
-  </si>
-  <si>
-    <t>Vidula Ganbote</t>
-  </si>
-  <si>
-    <t>Yamini Patle</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +445,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -454,7 +461,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -462,16 +469,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +963,7 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
@@ -979,8 +1004,8 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
+      <c r="D3" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1012,16 +1037,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="D4" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -1045,7 +1070,7 @@
         <v>0.10556712962962964</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -1053,15 +1078,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -1086,7 +1111,7 @@
         <v>0.11978009259259259</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
@@ -1094,16 +1119,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -1127,7 +1152,7 @@
         <v>8.8148148148148142E-2</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -1135,7 +1160,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1143,8 +1168,8 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
+      <c r="D7" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -1168,7 +1193,7 @@
         <v>0.2423495370370371</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
@@ -1176,15 +1201,15 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
@@ -1209,23 +1234,23 @@
         <v>3.0381944444444448E-2</v>
       </c>
       <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
@@ -1250,24 +1275,24 @@
         <v>0.11990740740740742</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -1291,24 +1316,24 @@
         <v>0.20210648148148147</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -1332,7 +1357,7 @@
         <v>0.18902777777777791</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -1340,15 +1365,15 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
@@ -1373,7 +1398,7 @@
         <v>9.1238425925926001E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
@@ -1381,15 +1406,15 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
@@ -1414,24 +1439,24 @@
         <v>0.11365740740740744</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -1455,7 +1480,7 @@
         <v>0.32042824074074078</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
@@ -1463,16 +1488,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -1496,23 +1521,23 @@
         <v>8.0937499999999982E-2</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
@@ -1537,24 +1562,24 @@
         <v>1.3564814814814814E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
+      <c r="D17" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -1578,7 +1603,7 @@
         <v>6.8020833333333336E-2</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
@@ -1586,15 +1611,15 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
@@ -1619,24 +1644,24 @@
         <v>6.6666666666666638E-2</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -1660,24 +1685,24 @@
         <v>0.14938657407407413</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -1701,23 +1726,23 @@
         <v>0.15456018518518516</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
@@ -1742,7 +1767,7 @@
         <v>0.16646990740740741</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
@@ -1750,16 +1775,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -1783,23 +1808,23 @@
         <v>4.5046296296296286E-2</v>
       </c>
       <c r="L22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
@@ -1824,24 +1849,24 @@
         <v>0.16385416666666661</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -1865,7 +1890,7 @@
         <v>0.19915509259259265</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
         <v>19</v>
@@ -1873,15 +1898,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
@@ -1906,23 +1931,23 @@
         <v>3.8576388888888889E-2</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
       <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="s">
@@ -1947,7 +1972,7 @@
         <v>0.10572916666666669</v>
       </c>
       <c r="L26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
@@ -1955,15 +1980,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
@@ -1988,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
@@ -1996,15 +2021,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
@@ -2029,23 +2054,23 @@
         <v>6.4814814814814824E-4</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
@@ -2070,7 +2095,7 @@
         <v>0.10247685185185183</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
@@ -2078,15 +2103,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
@@ -2111,23 +2136,23 @@
         <v>2.5590277777777781E-2</v>
       </c>
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
@@ -2152,7 +2177,7 @@
         <v>0.11649305555555561</v>
       </c>
       <c r="L31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -2160,7 +2185,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2168,7 +2193,7 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
@@ -2193,24 +2218,24 @@
         <v>0.10041666666666667</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
@@ -2234,23 +2259,23 @@
         <v>0.13402777777777772</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
@@ -2275,23 +2300,23 @@
         <v>0.20165509259259262</v>
       </c>
       <c r="L34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
@@ -2316,10 +2341,10 @@
         <v>0.12643518518518518</v>
       </c>
       <c r="L35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2332,7 +2357,7 @@
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
@@ -2360,21 +2385,21 @@
         <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
+      <c r="D37" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -2398,7 +2423,7 @@
         <v>0.21224537037037045</v>
       </c>
       <c r="L37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M37" t="s">
         <v>19</v>
@@ -2414,7 +2439,7 @@
       <c r="C38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
@@ -2442,20 +2467,20 @@
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
       <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
@@ -2480,23 +2505,23 @@
         <v>0.13236111111111112</v>
       </c>
       <c r="L39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
@@ -2521,23 +2546,23 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
@@ -2562,24 +2587,24 @@
         <v>0.14300925925925925</v>
       </c>
       <c r="L41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
         <v>30</v>
       </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" t="s">
-        <v>23</v>
+      <c r="D42" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E42" t="s">
         <v>0</v>
@@ -2603,7 +2628,7 @@
         <v>0.14446759259259273</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M42" t="s">
         <v>19</v>
@@ -2611,16 +2636,16 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -2644,23 +2669,23 @@
         <v>8.6053240740740736E-2</v>
       </c>
       <c r="L43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
@@ -2685,7 +2710,7 @@
         <v>3.8043981481481491E-2</v>
       </c>
       <c r="L44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M44" t="s">
         <v>19</v>
@@ -2693,15 +2718,15 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
       <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E45" t="s">
@@ -2726,10 +2751,10 @@
         <v>2.4826388888888898E-2</v>
       </c>
       <c r="L45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2742,7 +2767,7 @@
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
@@ -2770,20 +2795,20 @@
         <v>14</v>
       </c>
       <c r="M46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
@@ -2808,24 +2833,24 @@
         <v>3.1712962962962957E-2</v>
       </c>
       <c r="L47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E48" t="s">
         <v>0</v>
@@ -2849,7 +2874,7 @@
         <v>0.23318287037037042</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M48" t="s">
         <v>19</v>
@@ -2857,7 +2882,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -2865,8 +2890,8 @@
       <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="D49" t="s">
-        <v>23</v>
+      <c r="D49" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E49" t="s">
         <v>0</v>
@@ -2890,15 +2915,15 @@
         <v>4.3067129629629622E-2</v>
       </c>
       <c r="L49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -2906,8 +2931,8 @@
       <c r="C50" t="s">
         <v>22</v>
       </c>
-      <c r="D50" t="s">
-        <v>23</v>
+      <c r="D50" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E50" t="s">
         <v>0</v>
@@ -2931,24 +2956,24 @@
         <v>0.15098379629629632</v>
       </c>
       <c r="L50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="D51" t="s">
-        <v>23</v>
+      <c r="D51" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E51" t="s">
         <v>0</v>
@@ -2972,7 +2997,7 @@
         <v>0.11222222222222228</v>
       </c>
       <c r="L51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M51" t="s">
         <v>19</v>
@@ -2980,15 +3005,15 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
@@ -3013,23 +3038,23 @@
         <v>0.17280092592592577</v>
       </c>
       <c r="L52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
@@ -3054,23 +3079,23 @@
         <v>4.6250000000000013E-2</v>
       </c>
       <c r="L53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
@@ -3095,24 +3120,24 @@
         <v>0.12106481481481486</v>
       </c>
       <c r="L54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E55" t="s">
         <v>1</v>
@@ -3136,23 +3161,23 @@
         <v>6.2754629629629632E-2</v>
       </c>
       <c r="L55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
         <v>42</v>
       </c>
-      <c r="C56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
@@ -3177,7 +3202,7 @@
         <v>0.15112268518518535</v>
       </c>
       <c r="L56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M56" t="s">
         <v>19</v>
@@ -3185,16 +3210,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
-      <c r="D57" t="s">
-        <v>23</v>
+      <c r="D57" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E57" t="s">
         <v>0</v>
@@ -3218,24 +3243,24 @@
         <v>0.12008101851851855</v>
       </c>
       <c r="L57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
         <v>30</v>
       </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>23</v>
+      <c r="D58" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E58" t="s">
         <v>0</v>
@@ -3259,7 +3284,7 @@
         <v>7.5555555555555598E-2</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M58" t="s">
         <v>19</v>
@@ -3267,15 +3292,15 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
@@ -3300,7 +3325,7 @@
         <v>0.21505787037037036</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M59" t="s">
         <v>19</v>
@@ -3308,15 +3333,15 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E60" t="s">
@@ -3341,23 +3366,23 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E61" t="s">
@@ -3382,23 +3407,23 @@
         <v>2.9780092592592584E-2</v>
       </c>
       <c r="L61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E62" t="s">
@@ -3423,24 +3448,24 @@
         <v>0.1520949074074075</v>
       </c>
       <c r="L62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
         <v>24</v>
       </c>
-      <c r="C63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" t="s">
-        <v>23</v>
+      <c r="D63" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E63" t="s">
         <v>0</v>
@@ -3464,24 +3489,24 @@
         <v>4.3379629629629608E-2</v>
       </c>
       <c r="L63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" t="s">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E64" t="s">
         <v>1</v>
@@ -3505,23 +3530,23 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="M64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E65" t="s">
@@ -3546,7 +3571,7 @@
         <v>4.763888888888889E-2</v>
       </c>
       <c r="L65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M65" t="s">
         <v>19</v>
@@ -3554,16 +3579,16 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
@@ -3587,24 +3612,24 @@
         <v>1.4398148148148146E-2</v>
       </c>
       <c r="L66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
         <v>24</v>
       </c>
-      <c r="C67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
+      <c r="D67" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E67" t="s">
         <v>0</v>
@@ -3628,23 +3653,23 @@
         <v>3.4421296296296304E-2</v>
       </c>
       <c r="L67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E68" t="s">
@@ -3669,7 +3694,7 @@
         <v>0.24695601851851876</v>
       </c>
       <c r="L68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M68" t="s">
         <v>19</v>
@@ -3677,16 +3702,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E69" t="s">
         <v>0</v>
@@ -3710,7 +3735,7 @@
         <v>0.10497685185185181</v>
       </c>
       <c r="L69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M69" t="s">
         <v>19</v>
@@ -3718,16 +3743,16 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
         <v>99</v>
-      </c>
-      <c r="B70" t="s">
-        <v>100</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
-        <v>23</v>
+      <c r="D70" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E70" t="s">
         <v>0</v>
@@ -3751,10 +3776,10 @@
         <v>0.10464120370370368</v>
       </c>
       <c r="L70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3767,8 +3792,8 @@
       <c r="C71" t="s">
         <v>22</v>
       </c>
-      <c r="D71" t="s">
-        <v>23</v>
+      <c r="D71" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
@@ -3795,12 +3820,12 @@
         <v>22</v>
       </c>
       <c r="M71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -3808,7 +3833,7 @@
       <c r="C72" t="s">
         <v>15</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E72" t="s">
@@ -3833,7 +3858,7 @@
         <v>7.4143518518518511E-2</v>
       </c>
       <c r="L72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M72" t="s">
         <v>19</v>
@@ -3841,15 +3866,15 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s">
         <v>42</v>
       </c>
-      <c r="B73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E73" t="s">
@@ -3874,23 +3899,23 @@
         <v>8.1597222222222224E-2</v>
       </c>
       <c r="L73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E74" t="s">
@@ -3915,23 +3940,23 @@
         <v>6.7916666666666667E-2</v>
       </c>
       <c r="L74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E75" t="s">
@@ -3956,7 +3981,7 @@
         <v>0.23046296296296309</v>
       </c>
       <c r="L75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M75" t="s">
         <v>19</v>
@@ -3964,15 +3989,15 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s">
         <v>42</v>
       </c>
-      <c r="C76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
@@ -3997,23 +4022,23 @@
         <v>0.14644675925925923</v>
       </c>
       <c r="L76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E77" t="s">
@@ -4038,23 +4063,23 @@
         <v>6.5613425925925922E-2</v>
       </c>
       <c r="L77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E78" t="s">
@@ -4079,24 +4104,24 @@
         <v>0.12641203703703702</v>
       </c>
       <c r="L78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
         <v>24</v>
       </c>
-      <c r="C79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" t="s">
-        <v>23</v>
+      <c r="D79" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E79" t="s">
         <v>0</v>
@@ -4120,24 +4145,24 @@
         <v>0.1049189814814815</v>
       </c>
       <c r="L79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
       </c>
-      <c r="D80" t="s">
-        <v>23</v>
+      <c r="D80" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E80" t="s">
         <v>0</v>
@@ -4161,10 +4186,10 @@
         <v>0.22797453703703704</v>
       </c>
       <c r="L80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4177,8 +4202,8 @@
       <c r="C81" t="s">
         <v>22</v>
       </c>
-      <c r="D81" t="s">
-        <v>23</v>
+      <c r="D81" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E81" t="s">
         <v>1</v>
@@ -4205,21 +4230,21 @@
         <v>21</v>
       </c>
       <c r="M81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
         <v>30</v>
       </c>
-      <c r="C82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" t="s">
-        <v>23</v>
+      <c r="D82" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E82" t="s">
         <v>0</v>
@@ -4243,23 +4268,23 @@
         <v>2.072916666666666E-2</v>
       </c>
       <c r="L82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E83" t="s">
@@ -4284,24 +4309,24 @@
         <v>3.1435185185185163E-2</v>
       </c>
       <c r="L83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E84" t="s">
         <v>0</v>
@@ -4325,23 +4350,23 @@
         <v>6.1712962962962949E-2</v>
       </c>
       <c r="L84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E85" t="s">
@@ -4366,23 +4391,23 @@
         <v>1.0266203703703703E-2</v>
       </c>
       <c r="L85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
@@ -4407,23 +4432,23 @@
         <v>0.10362268518518522</v>
       </c>
       <c r="L86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E87" t="s">
@@ -4448,7 +4473,7 @@
         <v>0.13438657407407401</v>
       </c>
       <c r="L87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s">
         <v>19</v>
@@ -4456,15 +4481,15 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
         <v>42</v>
       </c>
-      <c r="C88" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E88" t="s">
@@ -4489,24 +4514,24 @@
         <v>9.3518518518518525E-3</v>
       </c>
       <c r="L88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E89" t="s">
         <v>0</v>
@@ -4530,24 +4555,24 @@
         <v>0.17853009259259264</v>
       </c>
       <c r="L89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
       </c>
-      <c r="D90" t="s">
-        <v>23</v>
+      <c r="D90" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E90" t="s">
         <v>0</v>
@@ -4571,23 +4596,23 @@
         <v>9.9131944444444453E-2</v>
       </c>
       <c r="L90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E91" t="s">
@@ -4612,23 +4637,23 @@
         <v>5.4780092592592582E-2</v>
       </c>
       <c r="L91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E92" t="s">
@@ -4653,24 +4678,24 @@
         <v>1.2361111111111113E-2</v>
       </c>
       <c r="L92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E93" t="s">
         <v>0</v>
@@ -4694,23 +4719,23 @@
         <v>5.7685185185185194E-2</v>
       </c>
       <c r="L93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E94" t="s">
@@ -4735,23 +4760,23 @@
         <v>0.13717592592592598</v>
       </c>
       <c r="L94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
@@ -4776,7 +4801,7 @@
         <v>0.15936342592592601</v>
       </c>
       <c r="L95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M95" t="s">
         <v>19</v>
@@ -4784,16 +4809,16 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E96" t="s">
         <v>0</v>
@@ -4817,24 +4842,24 @@
         <v>0.20108796296296297</v>
       </c>
       <c r="L96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
-      </c>
-      <c r="D97" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E97" t="s">
         <v>0</v>
@@ -4858,7 +4883,7 @@
         <v>0.12806712962962963</v>
       </c>
       <c r="L97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M97" t="s">
         <v>19</v>
@@ -4866,15 +4891,15 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E98" t="s">
@@ -4899,7 +4924,7 @@
         <v>0.12487268518518525</v>
       </c>
       <c r="L98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M98" t="s">
         <v>19</v>
@@ -4907,16 +4932,16 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E99" t="s">
         <v>1</v>
@@ -4940,24 +4965,24 @@
         <v>0.15870370370370374</v>
       </c>
       <c r="L99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>22</v>
       </c>
-      <c r="D100" t="s">
-        <v>23</v>
+      <c r="D100" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E100" t="s">
         <v>1</v>
@@ -4981,7 +5006,7 @@
         <v>7.5150462962962988E-2</v>
       </c>
       <c r="L100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M100" t="s">
         <v>19</v>
@@ -4989,15 +5014,15 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E101" t="s">
@@ -5022,15 +5047,15 @@
         <v>7.8796296296296336E-2</v>
       </c>
       <c r="L101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
@@ -5038,7 +5063,7 @@
       <c r="C102" t="s">
         <v>15</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E102" t="s">
@@ -5063,24 +5088,24 @@
         <v>8.8541666666666685E-2</v>
       </c>
       <c r="L102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
-      </c>
-      <c r="D103" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E103" t="s">
         <v>0</v>
@@ -5104,7 +5129,7 @@
         <v>0.16738425925925932</v>
       </c>
       <c r="L103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M103" t="s">
         <v>19</v>
@@ -5112,16 +5137,16 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E104" t="s">
         <v>0</v>
@@ -5145,7 +5170,7 @@
         <v>8.0196759259259204E-2</v>
       </c>
       <c r="L104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M104" t="s">
         <v>19</v>
@@ -5153,16 +5178,16 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
         <v>22</v>
       </c>
-      <c r="D105" t="s">
-        <v>23</v>
+      <c r="D105" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E105" t="s">
         <v>0</v>
@@ -5186,7 +5211,7 @@
         <v>0.25476851851851862</v>
       </c>
       <c r="L105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M105" t="s">
         <v>19</v>
@@ -5194,16 +5219,16 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
         <v>30</v>
       </c>
-      <c r="B106" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" t="s">
-        <v>23</v>
+      <c r="D106" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E106" t="s">
         <v>1</v>
@@ -5227,7 +5252,7 @@
         <v>5.0115740740740718E-2</v>
       </c>
       <c r="L106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M106" t="s">
         <v>19</v>
@@ -5235,15 +5260,15 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
         <v>27</v>
       </c>
-      <c r="C107" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E107" t="s">
@@ -5268,7 +5293,7 @@
         <v>0.13753472222222221</v>
       </c>
       <c r="L107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M107" t="s">
         <v>19</v>
@@ -5276,15 +5301,15 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E108" t="s">
@@ -5309,23 +5334,23 @@
         <v>0.10412037037037035</v>
       </c>
       <c r="L108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
         <v>27</v>
       </c>
-      <c r="B109" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E109" t="s">
@@ -5350,23 +5375,23 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="L109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
         <v>35</v>
       </c>
-      <c r="C110" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E110" t="s">
@@ -5391,7 +5416,7 @@
         <v>0.20668981481481483</v>
       </c>
       <c r="L110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M110" t="s">
         <v>19</v>
@@ -5399,16 +5424,16 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
         <v>22</v>
       </c>
-      <c r="D111" t="s">
-        <v>23</v>
+      <c r="D111" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E111" t="s">
         <v>1</v>
@@ -5432,23 +5457,23 @@
         <v>9.5370370370370366E-3</v>
       </c>
       <c r="L111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E112" t="s">
@@ -5473,7 +5498,7 @@
         <v>0.11877314814814813</v>
       </c>
       <c r="L112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M112" t="s">
         <v>19</v>
